--- a/Y2-Sem2/ITシステム開発２/01_企画フェーズ/ITシステム開発演習IIアイデアまとめシート.xlsx
+++ b/Y2-Sem2/ITシステム開発２/01_企画フェーズ/ITシステム開発演習IIアイデアまとめシート.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A7710B-7375-44AC-A394-3E2231368815}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0359055-272C-BC4C-A81F-98DB98F9A723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アイデアまとめシート" sheetId="1" r:id="rId1"/>
@@ -46,10 +46,6 @@
     <rPh sb="20" eb="22">
       <t>カイケツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リーダー：</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -98,22 +94,26 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>リーダー：文家俊</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -121,14 +121,14 @@
     <font>
       <sz val="26"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -136,7 +136,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -144,7 +144,7 @@
     <font>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -338,7 +338,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -379,7 +379,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -659,16 +659,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="249" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:R14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.3984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.3984375" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="16384" width="4.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="41.4" x14ac:dyDescent="1">
+    <row r="1" spans="1:18" ht="36">
       <c r="A1" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -688,7 +690,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:18" s="10" customFormat="1" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" s="10" customFormat="1" ht="20">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -710,7 +712,7 @@
       <c r="Q2" s="17"/>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -732,9 +734,9 @@
       <c r="Q3" s="13"/>
       <c r="R3" s="12"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -754,7 +756,7 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -774,7 +776,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="9"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -794,7 +796,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -814,9 +816,9 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18">
       <c r="A8" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -836,7 +838,7 @@
       <c r="Q8" s="13"/>
       <c r="R8" s="12"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -856,7 +858,7 @@
       <c r="Q9" s="20"/>
       <c r="R9" s="21"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18">
       <c r="A10" s="22"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -876,7 +878,7 @@
       <c r="Q10" s="23"/>
       <c r="R10" s="24"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18">
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -896,7 +898,7 @@
       <c r="Q11" s="23"/>
       <c r="R11" s="24"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18">
       <c r="A12" s="22"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -916,7 +918,7 @@
       <c r="Q12" s="23"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18">
       <c r="A13" s="22"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -936,7 +938,7 @@
       <c r="Q13" s="23"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18">
       <c r="A14" s="25"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -956,9 +958,9 @@
       <c r="Q14" s="26"/>
       <c r="R14" s="27"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18">
       <c r="A15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -978,7 +980,7 @@
       <c r="Q15" s="13"/>
       <c r="R15" s="12"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18">
       <c r="A16" s="19"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -998,7 +1000,7 @@
       <c r="Q16" s="28"/>
       <c r="R16" s="29"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -1018,7 +1020,7 @@
       <c r="Q17" s="31"/>
       <c r="R17" s="32"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18">
       <c r="A18" s="30"/>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -1038,7 +1040,7 @@
       <c r="Q18" s="31"/>
       <c r="R18" s="32"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18">
       <c r="A19" s="30"/>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
@@ -1058,7 +1060,7 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="32"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18">
       <c r="A20" s="30"/>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -1078,7 +1080,7 @@
       <c r="Q20" s="31"/>
       <c r="R20" s="32"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -1098,9 +1100,9 @@
       <c r="Q21" s="34"/>
       <c r="R21" s="35"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18">
       <c r="A22" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1120,7 +1122,7 @@
       <c r="Q22" s="13"/>
       <c r="R22" s="12"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18">
       <c r="A23" s="19"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -1140,7 +1142,7 @@
       <c r="Q23" s="28"/>
       <c r="R23" s="29"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18">
       <c r="A24" s="30"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
@@ -1160,7 +1162,7 @@
       <c r="Q24" s="31"/>
       <c r="R24" s="32"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18">
       <c r="A25" s="33"/>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
@@ -1180,7 +1182,7 @@
       <c r="Q25" s="34"/>
       <c r="R25" s="35"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18">
       <c r="A26" s="11" t="s">
         <v>2</v>
       </c>
@@ -1202,7 +1204,7 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18">
       <c r="A27" s="20"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
@@ -1222,7 +1224,7 @@
       <c r="Q27" s="28"/>
       <c r="R27" s="28"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:18">
       <c r="A28" s="31"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -1242,7 +1244,7 @@
       <c r="Q28" s="31"/>
       <c r="R28" s="31"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
@@ -1262,7 +1264,7 @@
       <c r="Q29" s="31"/>
       <c r="R29" s="31"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -1282,7 +1284,7 @@
       <c r="Q30" s="31"/>
       <c r="R30" s="31"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -1302,7 +1304,7 @@
       <c r="Q31" s="31"/>
       <c r="R31" s="31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18">
       <c r="A32" s="31"/>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -1322,7 +1324,7 @@
       <c r="Q32" s="31"/>
       <c r="R32" s="31"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18">
       <c r="A33" s="31"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -1342,7 +1344,7 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18">
       <c r="A34" s="31"/>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
@@ -1362,7 +1364,7 @@
       <c r="Q34" s="31"/>
       <c r="R34" s="31"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18">
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
@@ -1382,7 +1384,7 @@
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -1402,7 +1404,7 @@
       <c r="Q36" s="31"/>
       <c r="R36" s="31"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18">
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
@@ -1422,7 +1424,7 @@
       <c r="Q37" s="31"/>
       <c r="R37" s="31"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:18">
       <c r="A38" s="34"/>
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
@@ -1457,6 +1459,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="818372c2-5ca1-41d4-8e9c-cfddae3549a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="17b0db3f-bb77-44b7-9a15-7825ddede5b7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005D613A5EAFE00F468F9EFC7DA0099D63" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="f89806b87ddf166e089e0fe5a6d5ebbf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="818372c2-5ca1-41d4-8e9c-cfddae3549a4" xmlns:ns3="17b0db3f-bb77-44b7-9a15-7825ddede5b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ceafcd2a639a756995e47dc4ab0df1eb" ns2:_="" ns3:_="">
     <xsd:import namespace="818372c2-5ca1-41d4-8e9c-cfddae3549a4"/>
@@ -1667,34 +1689,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="818372c2-5ca1-41d4-8e9c-cfddae3549a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="17b0db3f-bb77-44b7-9a15-7825ddede5b7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1966D04D-531B-43F6-800D-17D7764DC38C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{148205FD-63C0-4DDF-94C6-432EDD4831D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="818372c2-5ca1-41d4-8e9c-cfddae3549a4"/>
+    <ds:schemaRef ds:uri="17b0db3f-bb77-44b7-9a15-7825ddede5b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431C2CF1-F965-4276-A6AF-680C17100A2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431C2CF1-F965-4276-A6AF-680C17100A2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{148205FD-63C0-4DDF-94C6-432EDD4831D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1966D04D-531B-43F6-800D-17D7764DC38C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="818372c2-5ca1-41d4-8e9c-cfddae3549a4"/>
+    <ds:schemaRef ds:uri="17b0db3f-bb77-44b7-9a15-7825ddede5b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>